--- a/기능별 분류맵(안)_gar.xlsx
+++ b/기능별 분류맵(안)_gar.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="333">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,6 +1295,10 @@
   </si>
   <si>
     <t>시청각자료번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2764,6 +2768,9 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1">
       <c r="A14" s="2" t="s">
